--- a/excel/1995/Report-1995-01-24.xlsx
+++ b/excel/1995/Report-1995-01-24.xlsx
@@ -13,37 +13,37 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="143" uniqueCount="101">
   <si>
-    <t>recall_classification_date</t>
-  </si>
-  <si>
-    <t>product_type</t>
-  </si>
-  <si>
-    <t>classification</t>
-  </si>
-  <si>
-    <t>recall_number</t>
-  </si>
-  <si>
-    <t>product</t>
-  </si>
-  <si>
-    <t>recalling_firm</t>
-  </si>
-  <si>
-    <t>manufacturer</t>
-  </si>
-  <si>
-    <t>recall_initiation_date</t>
-  </si>
-  <si>
-    <t>reason</t>
-  </si>
-  <si>
-    <t>volume</t>
-  </si>
-  <si>
-    <t>distribution</t>
+    <t>RECALL_CLASSIFICATION_DATE</t>
+  </si>
+  <si>
+    <t>PRODUCT_TYPE</t>
+  </si>
+  <si>
+    <t>CLASSIFICATION</t>
+  </si>
+  <si>
+    <t>RECALL_NUMBER</t>
+  </si>
+  <si>
+    <t>PRODUCT</t>
+  </si>
+  <si>
+    <t>RECALLING_FIRM</t>
+  </si>
+  <si>
+    <t>MANUFACTURER</t>
+  </si>
+  <si>
+    <t>RECALL_INITIALIZATION_DATE</t>
+  </si>
+  <si>
+    <t>REASON</t>
+  </si>
+  <si>
+    <t>VOLUME</t>
+  </si>
+  <si>
+    <t>DISTRIBUTION</t>
   </si>
   <si>
     <t>1995-01-24</t>
@@ -52,57 +52,55 @@
     <t>Drugs</t>
   </si>
   <si>
-    <t xml:space="preserve"> II </t>
+    <t>II</t>
   </si>
   <si>
     <t>d-077-6</t>
   </si>
   <si>
-    <t>Myochrysine (gold Sodium Thiomalate) Injection  50 Mg/ml, In 10 Ml Multi-dose Vials, Used For  Rheumatoid Arthritis, Under The Merck And King  Pharmaceuticals Label</t>
+    <t>Myochrysine Gold Sodium Thiomalate Injection 50 Mg Ml In 10 Ml Multi Dose Vials Used For Rheumatoid Arthritis Under The Merck And King Pharmaceuticals Label</t>
   </si>
   <si>
     <t>Manufacturer</t>
   </si>
   <si>
-    <t>Merck And Company, Inc</t>
-  </si>
-  <si>
-    <t>December 18, 1995</t>
-  </si>
-  <si>
-    <t>Product Does Not Meet Antimicrobial  Effectiveness Test.</t>
-  </si>
-  <si>
-    <t>approximately 90,000 unit packages remained on
- market at time of recall initiation</t>
-  </si>
-  <si>
-    <t>Nationwide, Spain, Peru</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> III</t>
+    <t>Merck And Company Inc</t>
+  </si>
+  <si>
+    <t>December 18 1995</t>
+  </si>
+  <si>
+    <t>Product Does Not Meet Antimicrobial Effectiveness Test</t>
+  </si>
+  <si>
+    <t>Approximately 90 000 Unit Packages Remained On Market At Time Of Recall Initiation</t>
+  </si>
+  <si>
+    <t>Nationwide Spain Peru</t>
+  </si>
+  <si>
+    <t>III</t>
   </si>
   <si>
     <t>d-078-6</t>
   </si>
   <si>
-    <t>Sodium Iodide I-131 Solution For Oral  Therapeutic Use, In 100 Mci And 50 Mci Vials,  Used For The Treatment Of Hyperthyroidism And  Selected Cases Of Carcinoma Of The Thyroid</t>
-  </si>
-  <si>
-    <t>Cis-us</t>
-  </si>
-  <si>
-    <t>Cis Bio International, Subsidiary Of Compagnie  Oris Industrie Sa, Cedex, France</t>
-  </si>
-  <si>
-    <t>December 15, 1995</t>
-  </si>
-  <si>
-    <t>Some Packages Contained A Package Insert For  Sodium Iodide I-131 Capsules.</t>
-  </si>
-  <si>
-    <t>71 100-mci vials and 55 50-mci vials were
- distributed</t>
+    <t>Sodium Iodide I 131 Solution For Oral Therapeutic Use In 100 Mci And 50 Mci Vials Used For The Treatment Of Hyperthyroidism And Selected Cases Of Carcinoma Of The Thyroid</t>
+  </si>
+  <si>
+    <t>Cis Us</t>
+  </si>
+  <si>
+    <t>Cis Bio International Subsidiary Of Compagnie Oris Industrie Sa Cedex France</t>
+  </si>
+  <si>
+    <t>December 15 1995</t>
+  </si>
+  <si>
+    <t>Some Packages Contained A Package Insert For Sodium Iodide I 131 Capsules</t>
+  </si>
+  <si>
+    <t>71 100 Mci Vials And 55 50 Mci Vials Were Distributed</t>
   </si>
   <si>
     <t>Nationwide</t>
@@ -114,25 +112,22 @@
     <t>z-321/325-6</t>
   </si>
   <si>
-    <t>I. v.  Extension Sets With "t" Connectors:  (a) Abbott Extension Set With "t" Connector</t>
+    <t>I V Extension Sets With T Connectors A Abbott Extension Set With T Connector</t>
   </si>
   <si>
     <t>Abbott Laboratories</t>
   </si>
   <si>
-    <t>Abbott Laboratories, Laurinburg, North  Carolina (hg Lot Suffix); Abbott Health  Products, Barceloneta, Puerto Rico (h1 Lot  Suffix)</t>
-  </si>
-  <si>
-    <t>December 8, 1995</t>
-  </si>
-  <si>
-    <t>Some Of The Extension Sets Leak And Disconnect  Between The Male Fitment Of The Device And The  Luer Fitment Of The I</t>
-  </si>
-  <si>
-    <t>2,120,180 units were distributed; firm
- estimated that 135,000 - 150,000 units
- remained on market at time of recall
- initiation</t>
+    <t>Abbott Laboratories Laurinburg North Carolina Hg Lot Suffix Abbott Health Products Barceloneta Puerto Rico H 1 Lot Suffix</t>
+  </si>
+  <si>
+    <t>December 8 1995</t>
+  </si>
+  <si>
+    <t>Some Of The Extension Sets Leak And Disconnect Between The Male Fitment Of The Device And The Luer Fitment Of The I</t>
+  </si>
+  <si>
+    <t>2 120 180 Units Were Distributed Firm Estimated That 135 000 150 000 Units Remained On Market At Time Of Recall Initiation</t>
   </si>
   <si>
     <t>Nationwide And International</t>
@@ -141,191 +136,184 @@
     <t>z-332/334-6</t>
   </si>
   <si>
-    <t>System 97, A Helium Charged, Mobile Intra-  Aortic Balloon Pump (iabp), Catalog #0998-00-  0104-x, For Use As A Patient Aid During Pre-,  Intra-, Or Post- Operative Open Heart Surgery;  Use Within Patients Demonstrating Unstable  Angina; Use Within Patients With Left Main  Artery Occlusion Or Poor Left Ventricle  Function: (a) Power Supply; (b) Front End  Board; (c) Solenoid Driver Board</t>
-  </si>
-  <si>
-    <t>Datascope Corporation, Paramus, New Jersey</t>
-  </si>
-  <si>
-    <t>August 31, 1995</t>
-  </si>
-  <si>
-    <t>The System May Fail Because Of The Following  Component Failures:  Power Supply: Failure Of A Zener Diode,  Designated At Vr9 In The System Power Supply,  Which Can Result In A "power On" Condition  Which Cannot Be Switched Off By Normal Means</t>
-  </si>
-  <si>
-    <t>(a) 259 units; (b) 554 units; (c) 153 units
- were distributed;
-reason the system may fail because of the following
- component failures:
- power supply: failure of a zener diode,
- designated at vr9 in the system power supply,
- which can result in a "power on" condition
- which cannot be switched off by normal mean</t>
+    <t>System 97 A Helium Charged Mobile Intra Aortic Balloon Pump Iabp Catalog 0998 00 0104 X For Use As A Patient Aid During Pre Intra Or Post Operative Open Heart Surgery Use Within Patients Demonstrating Unstable Angina Use Within Patients With Left Main Artery Occlusion Or Poor Left Ventricle Function A Power Supply B Front End Board C Solenoid Driver Board</t>
+  </si>
+  <si>
+    <t>Datascope Corporation Paramus New Jersey</t>
+  </si>
+  <si>
+    <t>August 31 1995</t>
+  </si>
+  <si>
+    <t>The System May Fail Because Of The Following Component Failures Power Supply Failure Of A Zener Diode Designated At Vr 9 In The System Power Supply Which Can Result In A Power On Condition Which Cannot Be Switched Off By Normal Means</t>
+  </si>
+  <si>
+    <t>A 259 Units B 554 Units C 153 Units Were Distributed</t>
   </si>
   <si>
     <t>z-335-6</t>
   </si>
   <si>
-    <t>3m Sarns Brand Perfusion System 9000 Gas Flow  System, Used To Provide And Monitor Co2 Flow  To The Patient During Cardiopulmonary Bypass</t>
-  </si>
-  <si>
-    <t>Sarns 3m Health Care, Ann Arbor, Michigan</t>
-  </si>
-  <si>
-    <t>July 24, 1995</t>
-  </si>
-  <si>
-    <t>The Relay Controlling The Co2 Flow Can  Experience Random Failure And Latch In The  "on" Position, Causing Co2 Gas To Continue To  Flow After Completion Of The Pre-bypass Co2  Flush Of The Perfusion Circuit</t>
-  </si>
-  <si>
-    <t>approximately 500 units</t>
+    <t>3 M Sarns Brand Perfusion System 9000 Gas Flow System Used To Provide And Monitor Co 2 Flow To The Patient During Cardiopulmonary Bypass</t>
+  </si>
+  <si>
+    <t>Sarns 3 M Health Care Ann Arbor Michigan</t>
+  </si>
+  <si>
+    <t>July 24 1995</t>
+  </si>
+  <si>
+    <t>The Relay Controlling The Co 2 Flow Can Experience Random Failure And Latch In The On Position Causing Co 2 Gas To Continue To Flow After Completion Of The Pre Bypass Co 2 Flush Of The Perfusion Circuit</t>
+  </si>
+  <si>
+    <t>Approximately 500 Units</t>
   </si>
   <si>
     <t>z-336/337-6</t>
   </si>
   <si>
-    <t>Duopulse And Unipulse Dental Laser System,  Used In Dental Surgery</t>
-  </si>
-  <si>
-    <t>Manufacturer.  Fda Approved The Firm's  Corrective Action Plan December 28</t>
-  </si>
-  <si>
-    <t>Excel/quantronix Corporation, Hauppauge, New  York</t>
-  </si>
-  <si>
-    <t>December 28, 1995</t>
-  </si>
-  <si>
-    <t>Noncompliance With Performance Standards For  Laser Products In That The Operator's Manuals  Lacked Adequate Calibration Procedures And The  Devices Had Several Labeling Noncompliances</t>
-  </si>
-  <si>
-    <t>213 units were distributed</t>
-  </si>
-  <si>
-    <t>Nationwide, Germany, Korea</t>
+    <t>Duopulse And Unipulse Dental Laser System Used In Dental Surgery</t>
+  </si>
+  <si>
+    <t>Manufacturer Fda Approved The Firm's Corrective Action Plan December 28</t>
+  </si>
+  <si>
+    <t>Excel Quantronix Corporation Hauppauge New York</t>
+  </si>
+  <si>
+    <t>December 28 1995</t>
+  </si>
+  <si>
+    <t>Noncompliance With Performance Standards For Laser Products In That The Operator's Manuals Lacked Adequate Calibration Procedures And The Devices Had Several Labeling Noncompliances</t>
+  </si>
+  <si>
+    <t>213 Units Were Distributed</t>
+  </si>
+  <si>
+    <t>Nationwide Germany Korea</t>
   </si>
   <si>
     <t>z-346-6</t>
   </si>
   <si>
-    <t>Tempo/tingle Timers Installed With Diagnostic  X-ray Systems, Used To Regulate The Duration,  And To Some Extent, The Amount Of Exposure To  X-radiation</t>
-  </si>
-  <si>
-    <t>Manufacturer.  Fda Approved The Firm's  Corrective Action Plan January 3</t>
-  </si>
-  <si>
-    <t>Tingle X-ray Products, Inc</t>
-  </si>
-  <si>
-    <t>January 3, 1996</t>
-  </si>
-  <si>
-    <t>Devices Were Not Tested For Accuracy In  Accordance With The Specifications, And Did  Not Bear Proper Certification And  Identification Labels, As Required By 21 Cfr  1020</t>
-  </si>
-  <si>
-    <t>17 timers</t>
+    <t>Tempo Tingle Timers Installed With Diagnostic X Ray Systems Used To Regulate The Duration And To Some Extent The Amount Of Exposure To X Radiation</t>
+  </si>
+  <si>
+    <t>Manufacturer Fda Approved The Firm's Corrective Action Plan January 3</t>
+  </si>
+  <si>
+    <t>Tingle X Ray Products Inc</t>
+  </si>
+  <si>
+    <t>January 3 1996</t>
+  </si>
+  <si>
+    <t>Devices Were Not Tested For Accuracy In Accordance With The Specifications And Did Not Bear Proper Certification And Identification Labels As Required By 21 Cfr 1020</t>
+  </si>
+  <si>
+    <t>17 Timers</t>
   </si>
   <si>
     <t>z-347-6</t>
   </si>
   <si>
-    <t>Immunocard Helicobacter Pylori Test Kit,  Catalog #710030, A Rapid Enzyme Immunoassay  For The Detection Of Igg Antibodies To  Helicobacter Pylori In Human Serum And Plasma</t>
-  </si>
-  <si>
-    <t>Meridian Diagnostics, Inc</t>
-  </si>
-  <si>
-    <t>November 14, 1995</t>
-  </si>
-  <si>
-    <t>The Enzyme Conjugate In The Kit Was Prepared  At The Wrong Dilution, Resulting In An  Improper Sensitivity Of The Tests</t>
-  </si>
-  <si>
-    <t>175 test kits of lot #710030</t>
-  </si>
-  <si>
-    <t>Nationwide, Italy, Russia, Puerto Rico</t>
+    <t>Immunocard Helicobacter Pylori Test Kit Catalog 710030 A Rapid Enzyme Immunoassay For The Detection Of Igg Antibodies To Helicobacter Pylori In Human Serum And Plasma</t>
+  </si>
+  <si>
+    <t>Meridian Diagnostics Inc</t>
+  </si>
+  <si>
+    <t>November 14 1995</t>
+  </si>
+  <si>
+    <t>The Enzyme Conjugate In The Kit Was Prepared At The Wrong Dilution Resulting In An Improper Sensitivity Of The Tests</t>
+  </si>
+  <si>
+    <t>175 Test Kits Of Lot 710030 007 And 57 Test Kits Of Lot 710030 008 Were Distributed</t>
+  </si>
+  <si>
+    <t>Nationwide Italy Russia Puerto Rico</t>
   </si>
   <si>
     <t>z-348-6</t>
   </si>
   <si>
-    <t>Captia Rubella-m Eia Test Kit,   Product #801-165</t>
+    <t>Captia Rubella M Eia Test Kit Product 801 165</t>
   </si>
   <si>
     <t>Centocor</t>
   </si>
   <si>
-    <t>Centocor, Uk Ltd</t>
-  </si>
-  <si>
-    <t>June 23, 1995</t>
-  </si>
-  <si>
-    <t>There Is A Higher Incidence Of  Equivocal/positive Results Than Anticipated</t>
-  </si>
-  <si>
-    <t>200 kits were distributed</t>
+    <t>Centocor Uk Ltd</t>
+  </si>
+  <si>
+    <t>June 23 1995</t>
+  </si>
+  <si>
+    <t>There Is A Higher Incidence Of Equivocal Positive Results Than Anticipated</t>
+  </si>
+  <si>
+    <t>200 Kits Were Distributed</t>
   </si>
   <si>
     <t>z-349/357-6</t>
   </si>
   <si>
-    <t>Critikon Brand Protectiv And Protectiv-plus  I</t>
+    <t>Critikon Brand Protectiv And Protectiv Plus I</t>
   </si>
   <si>
     <t>Johnson And Johnson</t>
   </si>
   <si>
-    <t>Johnson And Johnson Company, Formerly Known As  Critikon, Inc</t>
-  </si>
-  <si>
-    <t>April 10, 1995</t>
-  </si>
-  <si>
-    <t>An Opening May Be Present In The Clear Plastic  Portion Of The Blister Package, Therefore  Compromising The Sterile Barrier Of The  Package</t>
-  </si>
-  <si>
-    <t>778,191 catheters were distributed</t>
+    <t>Johnson And Johnson Company Formerly Known As Critikon Inc</t>
+  </si>
+  <si>
+    <t>April 10 1995</t>
+  </si>
+  <si>
+    <t>An Opening May Be Present In The Clear Plastic Portion Of The Blister Package Therefore Compromising The Sterile Barrier Of The Package</t>
+  </si>
+  <si>
+    <t>778 191 Catheters Were Distributed</t>
   </si>
   <si>
     <t>z-358-6</t>
   </si>
   <si>
-    <t>Cellfree Interleukin-2 Receptor (il-2r) Bead  Assay Kit, Catalog #ak3120, For The  Quantitative Measurement Of Interleukin-2  Receptor Level In Human Serum</t>
-  </si>
-  <si>
-    <t>T Cell Diagnostics, Inc</t>
-  </si>
-  <si>
-    <t>January 28, 1994</t>
-  </si>
-  <si>
-    <t>Controls Provided With The Product Were Not  Meeting The Assigned Ranges And Fell Below  Specified Limits</t>
-  </si>
-  <si>
-    <t>20 kits were distributed</t>
-  </si>
-  <si>
-    <t>Massachusetts, Texas, Connecticut, Louisiana,  Greece</t>
+    <t>Cellfree Interleukin 2 Receptor Il 2 R Bead Assay Kit Catalog Ak 3120 For The Quantitative Measurement Of Interleukin 2 Receptor Level In Human Serum</t>
+  </si>
+  <si>
+    <t>T Cell Diagnostics Inc</t>
+  </si>
+  <si>
+    <t>January 28 1994</t>
+  </si>
+  <si>
+    <t>Controls Provided With The Product Were Not Meeting The Assigned Ranges And Fell Below Specified Limits</t>
+  </si>
+  <si>
+    <t>20 Kits Were Distributed</t>
+  </si>
+  <si>
+    <t>Massachusetts Texas Connecticut Louisiana Greece</t>
   </si>
   <si>
     <t>z-360-6</t>
   </si>
   <si>
-    <t>Glucometer Encore Test Strips, Used To Measure  Glucose In Whole Blood</t>
-  </si>
-  <si>
-    <t>Bayer Corporation, Elkhart, Indiana</t>
-  </si>
-  <si>
-    <t>July 7, 1995</t>
-  </si>
-  <si>
-    <t>Subject Lots May Fail To Give Blood Glucose  Reading, And The Glucometer Encore Meter Will  Display An E-3 Error Code</t>
-  </si>
-  <si>
-    <t>45,451 cartons</t>
+    <t>Glucometer Encore Test Strips Used To Measure Glucose In Whole Blood</t>
+  </si>
+  <si>
+    <t>Bayer Corporation Elkhart Indiana</t>
+  </si>
+  <si>
+    <t>July 7 1995</t>
+  </si>
+  <si>
+    <t>Subject Lots May Fail To Give Blood Glucose Reading And The Glucometer Encore Meter Will Display An E 3 Error Code</t>
+  </si>
+  <si>
+    <t>45 451 Cartons</t>
   </si>
 </sst>
 </file>
